--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandr\OneDrive\Documentos\GitHub\pyMono\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\pyMono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF6BD59-415D-48C6-8FE3-B401B6A848AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB69598-61BB-4EDE-83C3-A5221157F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="255" windowWidth="13500" windowHeight="11385" xr2:uid="{FD0C1DE2-B8C5-4FA6-A84B-A1F40811D736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD0C1DE2-B8C5-4FA6-A84B-A1F40811D736}"/>
   </bookViews>
   <sheets>
     <sheet name="Pasta1" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709B2C15-166E-4CD3-BBB6-4F4021EA7AAB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
